--- a/biology/Médecine/Eugène_Apert/Eugène_Apert.xlsx
+++ b/biology/Médecine/Eugène_Apert/Eugène_Apert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Apert</t>
+          <t>Eugène_Apert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Apert, né le 27 juillet 1868 et mort le 2 février 1940, est un pédiatre et médecin des Hôpitaux de Paris, spécialisé dans le domaine des affections endocriniennes. Il est le découvreur du syndrome de la craniosynostose qui porte son nom, le syndrome d'Apert.
 Eugène Apert obtint son doctorat en médecine en 1897. Il était l'élève du pédiatre Antoine Marfan (1858-1942).
